--- a/analysis/4_run_message/scenarios_new.xlsx
+++ b/analysis/4_run_message/scenarios_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\message_trade\analysis\4_run_message\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0236F4BB-5D5F-46D2-AB28-AE11AC73A1D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCCAF88-D07C-40AD-B6BA-2651056FB126}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8145" xr2:uid="{5953306A-3E49-4D6C-A95F-65BD8AD6FB69}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="2130" windowWidth="3330" windowHeight="7065" xr2:uid="{5953306A-3E49-4D6C-A95F-65BD8AD6FB69}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="56">
   <si>
     <t>MESSAGE-TRADE Scenario and Version</t>
   </si>
@@ -195,6 +196,9 @@
   </si>
   <si>
     <t>Add back growth bounds and historical activity/new capacity, technical lifetime is 5 years</t>
+  </si>
+  <si>
+    <t>Add activity bounds, allow pipeline transfer</t>
   </si>
 </sst>
 </file>
@@ -633,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8478204-7BB5-4095-9E62-D455880F0DDA}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1475,6 +1479,26 @@
         <v>53</v>
       </c>
     </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>70</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>35</v>
+      </c>
+      <c r="F42" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD1"/>

--- a/analysis/4_run_message/scenarios_new.xlsx
+++ b/analysis/4_run_message/scenarios_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\message_trade\analysis\4_run_message\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCCAF88-D07C-40AD-B6BA-2651056FB126}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FD3F70-4DD8-40E4-BC2B-AAE206EBDED0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="2130" windowWidth="3330" windowHeight="7065" xr2:uid="{5953306A-3E49-4D6C-A95F-65BD8AD6FB69}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5953306A-3E49-4D6C-A95F-65BD8AD6FB69}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="71">
   <si>
     <t>MESSAGE-TRADE Scenario and Version</t>
   </si>
@@ -199,6 +199,51 @@
   </si>
   <si>
     <t>Add activity bounds, allow pipeline transfer</t>
+  </si>
+  <si>
+    <t>Re-add relation activity</t>
+  </si>
+  <si>
+    <t>Add shipping technology: liquid_shipping</t>
+  </si>
+  <si>
+    <t>Add export aggregation relation_activity</t>
+  </si>
+  <si>
+    <t>Add shipping technology: liquid_shipping (no vintage)</t>
+  </si>
+  <si>
+    <t>Add shipping technology: liquid_shipping (no vintage), change relation coefficient</t>
+  </si>
+  <si>
+    <t>Add shipping technology: liquid_shipping (no vintage), change investment cost and unit of shipping to billion tons-km-y</t>
+  </si>
+  <si>
+    <t>Disaggregate shipping technology</t>
+  </si>
+  <si>
+    <t>Add loil and foil trade technologies</t>
+  </si>
+  <si>
+    <t>Add loil and foil trade technologies, update commodity</t>
+  </si>
+  <si>
+    <t>Add only loil technologies</t>
+  </si>
+  <si>
+    <t>Add only loil technologies, adjust shipping technology R script</t>
+  </si>
+  <si>
+    <t>Add loil and foil, but only loil to shipping relation</t>
+  </si>
+  <si>
+    <t>Add loil and foil, to shipping too, allow use in bunker technologies</t>
+  </si>
+  <si>
+    <t>Add LNG</t>
+  </si>
+  <si>
+    <t>Add coal</t>
   </si>
 </sst>
 </file>
@@ -637,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8478204-7BB5-4095-9E62-D455880F0DDA}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1499,6 +1544,326 @@
         <v>55</v>
       </c>
     </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>74</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" t="s">
+        <v>35</v>
+      </c>
+      <c r="F43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>75</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s">
+        <v>35</v>
+      </c>
+      <c r="F44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>78</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" t="s">
+        <v>35</v>
+      </c>
+      <c r="F45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46">
+        <v>79</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" t="s">
+        <v>35</v>
+      </c>
+      <c r="F46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47">
+        <v>81</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s">
+        <v>35</v>
+      </c>
+      <c r="F47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <v>83</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" t="s">
+        <v>35</v>
+      </c>
+      <c r="F48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49">
+        <v>83</v>
+      </c>
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" t="s">
+        <v>35</v>
+      </c>
+      <c r="F49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50">
+        <v>85</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" t="s">
+        <v>35</v>
+      </c>
+      <c r="F50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51">
+        <v>86</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
+        <v>35</v>
+      </c>
+      <c r="F51" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52">
+        <v>88</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>35</v>
+      </c>
+      <c r="F52" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53">
+        <v>88</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s">
+        <v>35</v>
+      </c>
+      <c r="F53" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54">
+        <v>90</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>35</v>
+      </c>
+      <c r="F54" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55">
+        <v>91</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s">
+        <v>35</v>
+      </c>
+      <c r="F55" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56">
+        <v>92</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" t="s">
+        <v>35</v>
+      </c>
+      <c r="F56" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57">
+        <v>93</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" t="s">
+        <v>35</v>
+      </c>
+      <c r="F57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58">
+        <v>94</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" t="s">
+        <v>35</v>
+      </c>
+      <c r="F58" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD1"/>

--- a/analysis/4_run_message/scenarios_new.xlsx
+++ b/analysis/4_run_message/scenarios_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\message_trade\analysis\4_run_message\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FD3F70-4DD8-40E4-BC2B-AAE206EBDED0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA134C52-08FB-4502-A130-4A696912EE90}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5953306A-3E49-4D6C-A95F-65BD8AD6FB69}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="73">
   <si>
     <t>MESSAGE-TRADE Scenario and Version</t>
   </si>
@@ -244,6 +244,12 @@
   </si>
   <si>
     <t>Add coal</t>
+  </si>
+  <si>
+    <t>baseline</t>
+  </si>
+  <si>
+    <t>Distance and baseline tariffs in variable cost</t>
   </si>
 </sst>
 </file>
@@ -682,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8478204-7BB5-4095-9E62-D455880F0DDA}">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1864,6 +1870,26 @@
         <v>70</v>
       </c>
     </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" t="s">
+        <v>35</v>
+      </c>
+      <c r="F59" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:XFD1"/>
